--- a/biology/Microbiologie/Vorticella/Vorticella.xlsx
+++ b/biology/Microbiologie/Vorticella/Vorticella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vorticella (les vorticelles) est un genre de ciliés de la famille des Vorticellidae. Organisme d'eau douce vivant fixé aux pierres ou aux plantes, la vorticelle possède un pédoncule à fibrilles musculaires qui se tend et se détend comme un véritable ressort. Elle vit isolément ou en colonies et sa forme est une des plus curieuses que l'on rencontre chez les ciliés.
-Un fossile d'un individu de ce genre, très bien conservé dans un cocon de sangsue lui-même fossilisé il y a 200 millions d'années a été trouvé[1].
+Un fossile d'un individu de ce genre, très bien conservé dans un cocon de sangsue lui-même fossilisé il y a 200 millions d'années a été trouvé.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 déc. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 déc. 2010) :
 Vorticella aequilata Kahl, 1939
 Vorticella alba de Fromentel, 1874
 Vorticella anabaena Stiller, 1940
@@ -568,7 +582,7 @@
 Vorticella undulata (Dons, 1918) Kahl, 1935
 Vorticella urceolaris Linnaeus, 1767
 Vorticella verrucosa Dons, 1915
-Selon ITIS      (7 déc. 2010)[3] :
+Selon ITIS      (7 déc. 2010) :
 Vorticella campanula Ehr.
 Vorticella citrina Mull.
 Vorticella communis From.
@@ -611,6 +625,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
